--- a/rpabasic/excel/range_move.xlsx
+++ b/rpabasic/excel/range_move.xlsx
@@ -443,10 +443,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
@@ -454,10 +454,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +465,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D4" t="n">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -476,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -487,10 +487,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -498,10 +498,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -509,10 +509,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -520,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D9" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -531,10 +531,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D10" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -542,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
